--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thegs\OneDrive\Desktop\School\Fall24\Experimental Methods\SpecialProjectCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thegs\OneDrive\Documents\GitHub\ExperimentalMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BE5B8-BA95-4D51-B4D2-41F18729FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D500B8A5-3C69-49D7-9BC0-CEAAA4D55CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1770" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="43">
   <si>
     <t>Lift</t>
   </si>
@@ -132,12 +132,6 @@
     <t>WOZ (volts) - (RUN) - 09:40:17</t>
   </si>
   <si>
-    <t>Motor off Windoff</t>
-  </si>
-  <si>
-    <t>Motor on Wind off</t>
-  </si>
-  <si>
     <t>Motor off wind off</t>
   </si>
   <si>
@@ -160,12 +154,6 @@
   </si>
   <si>
     <t>WOZ (volts) - (RUN) - 11:05:05</t>
-  </si>
-  <si>
-    <t>motor off wind off</t>
-  </si>
-  <si>
-    <t>motor on wind off</t>
   </si>
   <si>
     <t>5.625 in</t>
@@ -210,10 +198,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,85 +491,85 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -617,39 +605,39 @@
       <c r="K40" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -685,41 +673,41 @@
       <c r="K44" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -755,41 +743,41 @@
       <c r="K53" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -825,44 +813,44 @@
       <c r="K72" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:J70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -870,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,509 +900,427 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.39952546296296299</v>
+        <v>0.39974537037037039</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="C2">
         <v>0.04</v>
       </c>
       <c r="D2">
-        <v>-2.4199999999999999E-2</v>
+        <v>-4.1799999999999997E-2</v>
       </c>
       <c r="E2">
-        <v>0.14799999999999999</v>
+        <v>0.14030000000000001</v>
       </c>
       <c r="F2">
-        <v>-3.3999999999999998E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="G2">
-        <v>5.1200000000000002E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="H2">
-        <v>1.2999999999999999E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="I2">
-        <v>-0.1021</v>
+        <v>-0.10630000000000001</v>
       </c>
       <c r="J2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+        <v>0.59</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.39974537037037039</v>
+        <v>0.40013888888888888</v>
       </c>
       <c r="B3">
-        <v>-2.0099999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
         <v>0.04</v>
       </c>
       <c r="D3">
-        <v>-4.1799999999999997E-2</v>
+        <v>-5.9499999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>0.14030000000000001</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="F3">
-        <v>2.8999999999999998E-3</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="G3">
-        <v>4.9500000000000002E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>-1E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="I3">
-        <v>-0.10630000000000001</v>
+        <v>-0.1012</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.59</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+        <v>0.62</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.40013888888888888</v>
+        <v>0.40033564814814815</v>
       </c>
       <c r="B4">
-        <v>0.06</v>
+        <v>2.11</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>-5.9499999999999997E-2</v>
+        <v>-7.3800000000000004E-2</v>
       </c>
       <c r="E4">
-        <v>0.14829999999999999</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="F4">
-        <v>-3.3999999999999998E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="G4">
-        <v>4.7300000000000002E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="H4">
-        <v>-2.7000000000000001E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="I4">
-        <v>-0.1012</v>
+        <v>-0.1075</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
-        <v>0.62</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.40033564814814815</v>
+        <v>0.40053240740740742</v>
       </c>
       <c r="B5">
-        <v>2.11</v>
+        <v>3.93</v>
       </c>
       <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>-9.0300000000000005E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="H5">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>-0.1079</v>
+      </c>
+      <c r="J5">
         <v>0.05</v>
       </c>
-      <c r="D5">
-        <v>-7.3800000000000004E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="F5">
-        <v>-2E-3</v>
-      </c>
-      <c r="G5">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="H5">
-        <v>-4.7999999999999996E-3</v>
-      </c>
-      <c r="I5">
-        <v>-0.1075</v>
-      </c>
-      <c r="J5">
-        <v>0.02</v>
-      </c>
       <c r="K5">
-        <v>0.64</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.40053240740740742</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="B6">
-        <v>3.93</v>
+        <v>5.91</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
-        <v>-9.0300000000000005E-2</v>
+        <v>-0.1062</v>
       </c>
       <c r="E6">
-        <v>0.13250000000000001</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="G6">
-        <v>4.7800000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="H6">
-        <v>-1.1900000000000001E-2</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="I6">
-        <v>-0.1079</v>
+        <v>-0.10639999999999999</v>
       </c>
       <c r="J6">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K6">
-        <v>0.63</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.40069444444444446</v>
+        <v>0.40086805555555555</v>
       </c>
       <c r="B7">
-        <v>5.91</v>
+        <v>8.17</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>-0.1062</v>
+        <v>-0.11360000000000001</v>
       </c>
       <c r="E7">
-        <v>0.15040000000000001</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="F7">
-        <v>-2.8999999999999998E-3</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="G7">
-        <v>5.04E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="H7">
-        <v>-1.04E-2</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="I7">
-        <v>-0.10639999999999999</v>
+        <v>-9.7500000000000003E-2</v>
       </c>
       <c r="J7">
         <v>0.02</v>
       </c>
       <c r="K7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+        <v>0.62</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.40086805555555555</v>
+        <v>0.40100694444444446</v>
       </c>
       <c r="B8">
-        <v>8.17</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>-0.11360000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E8">
-        <v>0.14560000000000001</v>
+        <v>0.1394</v>
       </c>
       <c r="F8">
-        <v>-6.8999999999999999E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="G8">
-        <v>4.7300000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="H8">
-        <v>-4.7000000000000002E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="I8">
-        <v>-9.7500000000000003E-2</v>
+        <v>-0.10580000000000001</v>
       </c>
       <c r="J8">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K8">
-        <v>0.62</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.40100694444444446</v>
+        <v>0.40115740740740741</v>
       </c>
       <c r="B9">
-        <v>10.039999999999999</v>
+        <v>12.05</v>
       </c>
       <c r="C9">
         <v>0.04</v>
       </c>
       <c r="D9">
-        <v>-0.12</v>
+        <v>-0.13469999999999999</v>
       </c>
       <c r="E9">
-        <v>0.1394</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="F9">
-        <v>-1E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="G9">
-        <v>5.04E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="H9">
-        <v>-2.3E-3</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="I9">
-        <v>-0.10580000000000001</v>
+        <v>-0.1118</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="K9">
-        <v>0.63</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+        <v>0.61</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.40115740740740741</v>
+        <v>0.40130787037037036</v>
       </c>
       <c r="B10">
-        <v>12.05</v>
+        <v>14.15</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>-0.13469999999999999</v>
+        <v>-0.13819999999999999</v>
       </c>
       <c r="E10">
-        <v>0.14990000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
-        <v>-5.4000000000000003E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G10">
-        <v>5.1900000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="H10">
-        <v>-7.6E-3</v>
+        <v>-1.0500000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>-0.1118</v>
+        <v>-0.10580000000000001</v>
       </c>
       <c r="J10">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K10">
-        <v>0.61</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+        <v>0.59</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.40130787037037036</v>
+        <v>0.40144675925925927</v>
       </c>
       <c r="B11">
-        <v>14.15</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>-0.13819999999999999</v>
+        <v>-0.14410000000000001</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>0.1414</v>
       </c>
       <c r="F11">
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="G11">
-        <v>4.8300000000000003E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="H11">
-        <v>-1.0500000000000001E-2</v>
+        <v>-1.43E-2</v>
       </c>
       <c r="I11">
-        <v>-0.10580000000000001</v>
+        <v>-0.1011</v>
       </c>
       <c r="J11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.59</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.40144675925925927</v>
-      </c>
-      <c r="B12">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="C12">
-        <v>0.04</v>
-      </c>
-      <c r="D12">
-        <v>-0.14410000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.1414</v>
-      </c>
-      <c r="F12">
-        <v>-3.8E-3</v>
-      </c>
-      <c r="G12">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="H12">
-        <v>-1.43E-2</v>
-      </c>
-      <c r="I12">
-        <v>-0.1011</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
         <v>0.54</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.40201388888888889</v>
-      </c>
-      <c r="B13">
-        <v>0.02</v>
-      </c>
-      <c r="C13">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>-0.18870000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.1542</v>
-      </c>
-      <c r="F13">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G13">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="H13">
-        <v>-8.3999999999999995E-3</v>
-      </c>
-      <c r="I13">
-        <v>-0.10589999999999999</v>
-      </c>
-      <c r="J13">
-        <v>-0.04</v>
-      </c>
-      <c r="K13">
-        <v>0.6</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="L13:P13"/>
+  <mergeCells count="11">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L4:P4"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L4:P4"/>
     <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1422,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C9959A-4D4F-4F00-AF41-473D031A3A38}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,710 +1370,433 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.40313657407407405</v>
+        <v>0.40548611111111116</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-1.92</v>
       </c>
       <c r="C2">
         <v>0.04</v>
       </c>
       <c r="D2">
-        <v>-7.7000000000000002E-3</v>
+        <v>1.2605999999999999</v>
       </c>
       <c r="E2">
-        <v>0.14099999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="F2">
-        <v>1E-3</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="G2">
-        <v>4.9299999999999997E-2</v>
+        <v>0.63260000000000005</v>
       </c>
       <c r="H2">
-        <v>-3.5000000000000001E-3</v>
+        <v>0.5504</v>
       </c>
       <c r="I2">
-        <v>-9.9299999999999999E-2</v>
+        <v>-0.51719999999999999</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>1.68</v>
       </c>
       <c r="K2">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.40418981481481481</v>
+        <v>0.40561342592592592</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
-        <v>-9.69E-2</v>
+        <v>1.5596000000000001</v>
       </c>
       <c r="E3">
-        <v>0.8569</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>0.27029999999999998</v>
       </c>
       <c r="G3">
-        <v>0.49059999999999998</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="H3">
-        <v>2.4500000000000001E-2</v>
+        <v>0.61680000000000001</v>
       </c>
       <c r="I3">
-        <v>-0.3679</v>
+        <v>-0.52029999999999998</v>
       </c>
       <c r="J3">
-        <v>-0.03</v>
+        <v>1.65</v>
       </c>
       <c r="K3">
-        <v>0.71</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.40490740740740744</v>
+        <v>0.4057291666666667</v>
       </c>
       <c r="B4">
-        <v>0.36</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>1.1187</v>
+        <v>1.8902000000000001</v>
       </c>
       <c r="E4">
-        <v>0.92210000000000003</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="F4">
-        <v>0.218</v>
+        <v>0.33950000000000002</v>
       </c>
       <c r="G4">
-        <v>0.75590000000000002</v>
+        <v>0.94089999999999996</v>
       </c>
       <c r="H4">
-        <v>0.49509999999999998</v>
+        <v>0.74490000000000001</v>
       </c>
       <c r="I4">
-        <v>-0.498</v>
+        <v>-0.65949999999999998</v>
       </c>
       <c r="J4">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="K4">
-        <v>0.73</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.4050347222222222</v>
+        <v>0.40584490740740736</v>
       </c>
       <c r="B5">
-        <v>0.39</v>
+        <v>4.01</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
-        <v>1.6591</v>
+        <v>1.8072999999999999</v>
       </c>
       <c r="E5">
-        <v>0.95430000000000004</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="F5">
-        <v>0.29399999999999998</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="G5">
-        <v>0.80479999999999996</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="H5">
-        <v>0.66069999999999995</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="I5">
-        <v>-0.54139999999999999</v>
+        <v>-0.68340000000000001</v>
       </c>
       <c r="J5">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="K5">
-        <v>0.72</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.40548611111111116</v>
+        <v>0.40596064814814814</v>
       </c>
       <c r="B6">
-        <v>-1.92</v>
+        <v>6.11</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
-        <v>1.2605999999999999</v>
+        <v>2.1421000000000001</v>
       </c>
       <c r="E6">
-        <v>0.94</v>
+        <v>1.0951</v>
       </c>
       <c r="F6">
-        <v>0.24660000000000001</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="G6">
-        <v>0.63260000000000005</v>
+        <v>1.0133000000000001</v>
       </c>
       <c r="H6">
-        <v>0.5504</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="I6">
-        <v>-0.51719999999999999</v>
+        <v>-0.70079999999999998</v>
       </c>
       <c r="J6">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="K6">
-        <v>0.72</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.40561342592592592</v>
+        <v>0.40615740740740741</v>
       </c>
       <c r="B7">
-        <v>-0.03</v>
+        <v>8.14</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>1.5596000000000001</v>
+        <v>2.3853</v>
       </c>
       <c r="E7">
-        <v>0.82420000000000004</v>
+        <v>1.105</v>
       </c>
       <c r="F7">
-        <v>0.27029999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="G7">
-        <v>0.77439999999999998</v>
+        <v>1.2038</v>
       </c>
       <c r="H7">
-        <v>0.61680000000000001</v>
+        <v>1.0734999999999999</v>
       </c>
       <c r="I7">
-        <v>-0.52029999999999998</v>
+        <v>-0.87050000000000005</v>
       </c>
       <c r="J7">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="K7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+        <v>0.61</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.4057291666666667</v>
+        <v>0.40629629629629632</v>
       </c>
       <c r="B8">
-        <v>2.2999999999999998</v>
+        <v>10.09</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>1.8902000000000001</v>
+        <v>2.3746</v>
       </c>
       <c r="E8">
-        <v>0.89910000000000001</v>
+        <v>1.0621</v>
       </c>
       <c r="F8">
-        <v>0.33950000000000002</v>
+        <v>0.75309999999999999</v>
       </c>
       <c r="G8">
-        <v>0.94089999999999996</v>
+        <v>1.2089000000000001</v>
       </c>
       <c r="H8">
-        <v>0.74490000000000001</v>
+        <v>1.1291</v>
       </c>
       <c r="I8">
-        <v>-0.65949999999999998</v>
+        <v>-0.8871</v>
       </c>
       <c r="J8">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.40584490740740736</v>
+        <v>0.40643518518518523</v>
       </c>
       <c r="B9">
-        <v>4.01</v>
+        <v>11.96</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D9">
-        <v>1.8072999999999999</v>
+        <v>2.3654000000000002</v>
       </c>
       <c r="E9">
-        <v>0.91749999999999998</v>
+        <v>0.95860000000000001</v>
       </c>
       <c r="F9">
-        <v>0.36780000000000002</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="G9">
-        <v>0.95040000000000002</v>
+        <v>1.4865999999999999</v>
       </c>
       <c r="H9">
-        <v>0.78049999999999997</v>
+        <v>1.1616</v>
       </c>
       <c r="I9">
-        <v>-0.68340000000000001</v>
+        <v>-1.1066</v>
       </c>
       <c r="J9">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="K9">
-        <v>0.64</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+        <v>0.67</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.40596064814814814</v>
+        <v>0.40658564814814818</v>
       </c>
       <c r="B10">
-        <v>6.11</v>
+        <v>13.95</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>2.1421000000000001</v>
+        <v>2.4043000000000001</v>
       </c>
       <c r="E10">
-        <v>1.0951</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="F10">
-        <v>0.48609999999999998</v>
+        <v>0.9647</v>
       </c>
       <c r="G10">
-        <v>1.0133000000000001</v>
+        <v>1.3305</v>
       </c>
       <c r="H10">
-        <v>0.91830000000000001</v>
+        <v>1.1936</v>
       </c>
       <c r="I10">
-        <v>-0.70079999999999998</v>
+        <v>-1.0255000000000001</v>
       </c>
       <c r="J10">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="K10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.40615740740740741</v>
+        <v>0.40672453703703698</v>
       </c>
       <c r="B11">
-        <v>8.14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>2.3853</v>
+        <v>2.4561000000000002</v>
       </c>
       <c r="E11">
-        <v>1.105</v>
+        <v>1.0172000000000001</v>
       </c>
       <c r="F11">
-        <v>0.622</v>
+        <v>1.1036999999999999</v>
       </c>
       <c r="G11">
-        <v>1.2038</v>
+        <v>1.417</v>
       </c>
       <c r="H11">
-        <v>1.0734999999999999</v>
+        <v>1.2416</v>
       </c>
       <c r="I11">
-        <v>-0.87050000000000005</v>
+        <v>-1.1032</v>
       </c>
       <c r="J11">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="K11">
-        <v>0.61</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.40629629629629632</v>
-      </c>
-      <c r="B12">
-        <v>10.09</v>
-      </c>
-      <c r="C12">
-        <v>0.04</v>
-      </c>
-      <c r="D12">
-        <v>2.3746</v>
-      </c>
-      <c r="E12">
-        <v>1.0621</v>
-      </c>
-      <c r="F12">
-        <v>0.75309999999999999</v>
-      </c>
-      <c r="G12">
-        <v>1.2089000000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.1291</v>
-      </c>
-      <c r="I12">
-        <v>-0.8871</v>
-      </c>
-      <c r="J12">
-        <v>1.65</v>
-      </c>
-      <c r="K12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.40643518518518523</v>
-      </c>
-      <c r="B13">
-        <v>11.96</v>
-      </c>
-      <c r="C13">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>2.3654000000000002</v>
-      </c>
-      <c r="E13">
-        <v>0.95860000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="G13">
-        <v>1.4865999999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.1616</v>
-      </c>
-      <c r="I13">
-        <v>-1.1066</v>
-      </c>
-      <c r="J13">
-        <v>1.66</v>
-      </c>
-      <c r="K13">
-        <v>0.67</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.40658564814814818</v>
-      </c>
-      <c r="B14">
-        <v>13.95</v>
-      </c>
-      <c r="C14">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>2.4043000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="F14">
-        <v>0.9647</v>
-      </c>
-      <c r="G14">
-        <v>1.3305</v>
-      </c>
-      <c r="H14">
-        <v>1.1936</v>
-      </c>
-      <c r="I14">
-        <v>-1.0255000000000001</v>
-      </c>
-      <c r="J14">
-        <v>1.61</v>
-      </c>
-      <c r="K14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.40672453703703698</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>0.04</v>
-      </c>
-      <c r="D15">
-        <v>2.4561000000000002</v>
-      </c>
-      <c r="E15">
-        <v>1.0172000000000001</v>
-      </c>
-      <c r="F15">
-        <v>1.1036999999999999</v>
-      </c>
-      <c r="G15">
-        <v>1.417</v>
-      </c>
-      <c r="H15">
-        <v>1.2416</v>
-      </c>
-      <c r="I15">
-        <v>-1.1032</v>
-      </c>
-      <c r="J15">
-        <v>1.59</v>
-      </c>
-      <c r="K15">
-        <v>0.53</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.40728009259259257</v>
-      </c>
-      <c r="B16">
-        <v>-0.02</v>
-      </c>
-      <c r="C16">
-        <v>0.04</v>
-      </c>
-      <c r="D16">
-        <v>1.6133</v>
-      </c>
-      <c r="E16">
-        <v>1.0523</v>
-      </c>
-      <c r="F16">
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="H16">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="I16">
-        <v>-0.46910000000000002</v>
-      </c>
-      <c r="J16">
-        <v>1.79</v>
-      </c>
-      <c r="K16">
-        <v>0.62</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.40765046296296298</v>
-      </c>
-      <c r="B17">
-        <v>-0.12</v>
-      </c>
-      <c r="C17">
-        <v>0.03</v>
-      </c>
-      <c r="D17">
-        <v>-0.2959</v>
-      </c>
-      <c r="E17">
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="F17">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G17">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="H17">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="I17">
-        <v>-0.37530000000000002</v>
-      </c>
-      <c r="J17">
-        <v>-0.01</v>
-      </c>
-      <c r="K17">
-        <v>0.73</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.40876157407407404</v>
-      </c>
-      <c r="B18">
-        <v>-0.12</v>
-      </c>
-      <c r="C18">
-        <v>0.04</v>
-      </c>
-      <c r="D18">
-        <v>-0.36320000000000002</v>
-      </c>
-      <c r="E18">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="F18">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="G18">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="H18">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="I18">
-        <v>-8.6699999999999999E-2</v>
-      </c>
-      <c r="J18">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K18">
-        <v>0.69</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L13:P13"/>
+  <mergeCells count="13">
     <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L3:P3"/>
@@ -2179,7 +1808,7 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2229,13 +1858,13 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2271,13 +1900,13 @@
       <c r="K2">
         <v>0.68</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2314,7 +1943,7 @@
         <v>0.66</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2387,7 +2016,7 @@
         <v>0.7</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2425,7 +2054,7 @@
         <v>0.78</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2439,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A76F1-FE5C-4608-A78A-47E2470D8953}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,299 +2110,289 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.46214120370370365</v>
+        <v>0.46438657407407408</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-2.08</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D2">
-        <v>7.7000000000000002E-3</v>
+        <v>1.1763999999999999</v>
       </c>
       <c r="E2">
-        <v>0.1082</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="F2">
-        <v>3.7000000000000002E-3</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="G2">
-        <v>3.5499999999999997E-2</v>
+        <v>1.1012</v>
       </c>
       <c r="H2">
-        <v>-8.0000000000000002E-3</v>
+        <v>0.4365</v>
       </c>
       <c r="I2">
-        <v>-7.1099999999999997E-2</v>
+        <v>-1.1565000000000001</v>
       </c>
       <c r="J2">
-        <v>-0.01</v>
+        <v>1.41</v>
       </c>
       <c r="K2">
-        <v>0.66</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+        <v>0.71</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.46322916666666664</v>
+        <v>0.46452546296296293</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
-        <v>-1.2999999999999999E-3</v>
+        <v>1.4739</v>
       </c>
       <c r="E3">
-        <v>0.7591</v>
+        <v>0.9022</v>
       </c>
       <c r="F3">
-        <v>1.6999999999999999E-3</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="G3">
-        <v>0.43940000000000001</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="H3">
-        <v>-1.01E-2</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="I3">
-        <v>-0.44979999999999998</v>
+        <v>-0.66100000000000003</v>
       </c>
       <c r="J3">
-        <v>-0.05</v>
+        <v>1.44</v>
       </c>
       <c r="K3">
-        <v>0.7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.4642013888888889</v>
+        <v>0.46462962962962967</v>
       </c>
       <c r="B4">
-        <v>0.06</v>
+        <v>1.93</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>1.3168</v>
+        <v>1.6729000000000001</v>
       </c>
       <c r="E4">
-        <v>1.0052000000000001</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="F4">
-        <v>0.22289999999999999</v>
+        <v>0.28310000000000002</v>
       </c>
       <c r="G4">
-        <v>0.61380000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="H4">
-        <v>0.50339999999999996</v>
+        <v>0.60719999999999996</v>
       </c>
       <c r="I4">
-        <v>-0.59460000000000002</v>
+        <v>-0.79159999999999997</v>
       </c>
       <c r="J4">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="K4">
-        <v>0.64</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.46438657407407408</v>
+        <v>0.46476851851851847</v>
       </c>
       <c r="B5">
-        <v>-2.08</v>
+        <v>4.12</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D5">
-        <v>1.1763999999999999</v>
+        <v>1.7644</v>
       </c>
       <c r="E5">
-        <v>0.90949999999999998</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="F5">
-        <v>0.21579999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="G5">
-        <v>1.1012</v>
+        <v>0.94669999999999999</v>
       </c>
       <c r="H5">
-        <v>0.4365</v>
+        <v>0.67030000000000001</v>
       </c>
       <c r="I5">
-        <v>-1.1565000000000001</v>
+        <v>-0.65439999999999998</v>
       </c>
       <c r="J5">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="K5">
-        <v>0.71</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.46452546296296293</v>
+        <v>0.46488425925925925</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>6.16</v>
       </c>
       <c r="C6">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
-        <v>1.4739</v>
+        <v>2.0771999999999999</v>
       </c>
       <c r="E6">
-        <v>0.9022</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="F6">
-        <v>0.25600000000000001</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="G6">
-        <v>0.87880000000000003</v>
+        <v>1.0386</v>
       </c>
       <c r="H6">
-        <v>0.55630000000000002</v>
+        <v>0.84909999999999997</v>
       </c>
       <c r="I6">
-        <v>-0.66100000000000003</v>
+        <v>-0.76</v>
       </c>
       <c r="J6">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>0.73</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.46462962962962967</v>
+        <v>0.46502314814814816</v>
       </c>
       <c r="B7">
-        <v>1.93</v>
+        <v>7.96</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>1.6729000000000001</v>
+        <v>2.3643999999999998</v>
       </c>
       <c r="E7">
-        <v>0.76380000000000003</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="F7">
-        <v>0.28310000000000002</v>
+        <v>0.56679999999999997</v>
       </c>
       <c r="G7">
-        <v>1.08</v>
+        <v>1.1760999999999999</v>
       </c>
       <c r="H7">
-        <v>0.60719999999999996</v>
+        <v>0.96319999999999995</v>
       </c>
       <c r="I7">
-        <v>-0.79159999999999997</v>
+        <v>-0.80969999999999998</v>
       </c>
       <c r="J7">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="K7">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.46476851851851847</v>
+        <v>0.4651851851851852</v>
       </c>
       <c r="B8">
-        <v>4.12</v>
+        <v>9.91</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>1.7644</v>
+        <v>2.0316000000000001</v>
       </c>
       <c r="E8">
-        <v>0.91469999999999996</v>
+        <v>1.2194</v>
       </c>
       <c r="F8">
-        <v>0.32</v>
+        <v>0.57489999999999997</v>
       </c>
       <c r="G8">
-        <v>0.94669999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="H8">
-        <v>0.67030000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="I8">
-        <v>-0.65439999999999998</v>
+        <v>-0.82499999999999996</v>
       </c>
       <c r="J8">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="K8">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.46488425925925925</v>
+        <v>0.46530092592592592</v>
       </c>
       <c r="B9">
-        <v>6.16</v>
+        <v>11.95</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D9">
-        <v>2.0771999999999999</v>
+        <v>2.3361999999999998</v>
       </c>
       <c r="E9">
-        <v>0.98670000000000002</v>
+        <v>0.86380000000000001</v>
       </c>
       <c r="F9">
-        <v>0.45140000000000002</v>
+        <v>0.78969999999999996</v>
       </c>
       <c r="G9">
-        <v>1.0386</v>
+        <v>1.6644000000000001</v>
       </c>
       <c r="H9">
-        <v>0.84909999999999997</v>
+        <v>1.0248999999999999</v>
       </c>
       <c r="I9">
-        <v>-0.76</v>
+        <v>-1.1596</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="K9">
         <v>0.57999999999999996</v>
@@ -2781,34 +2400,34 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.46502314814814816</v>
+        <v>0.46545138888888887</v>
       </c>
       <c r="B10">
-        <v>7.96</v>
+        <v>14.19</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>2.3643999999999998</v>
+        <v>2.6042000000000001</v>
       </c>
       <c r="E10">
-        <v>0.94940000000000002</v>
+        <v>1.0487</v>
       </c>
       <c r="F10">
-        <v>0.56679999999999997</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="G10">
-        <v>1.1760999999999999</v>
+        <v>1.5247999999999999</v>
       </c>
       <c r="H10">
-        <v>0.96319999999999995</v>
+        <v>1.1697</v>
       </c>
       <c r="I10">
-        <v>-0.80969999999999998</v>
+        <v>-1.1291</v>
       </c>
       <c r="J10">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="K10">
         <v>0.6</v>
@@ -2816,224 +2435,42 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.4651851851851852</v>
+        <v>0.46556712962962959</v>
       </c>
       <c r="B11">
-        <v>9.91</v>
+        <v>16.05</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>2.0316000000000001</v>
+        <v>2.4127000000000001</v>
       </c>
       <c r="E11">
-        <v>1.2194</v>
+        <v>1.4320999999999999</v>
       </c>
       <c r="F11">
-        <v>0.57489999999999997</v>
+        <v>1.0402</v>
       </c>
       <c r="G11">
-        <v>1.224</v>
+        <v>1.7411000000000001</v>
       </c>
       <c r="H11">
-        <v>0.874</v>
+        <v>1.1673</v>
       </c>
       <c r="I11">
-        <v>-0.82499999999999996</v>
+        <v>-1.2728999999999999</v>
       </c>
       <c r="J11">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="K11">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.46530092592592592</v>
-      </c>
-      <c r="B12">
-        <v>11.95</v>
-      </c>
-      <c r="C12">
-        <v>0.04</v>
-      </c>
-      <c r="D12">
-        <v>2.3361999999999998</v>
-      </c>
-      <c r="E12">
-        <v>0.86380000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="G12">
-        <v>1.6644000000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.0248999999999999</v>
-      </c>
-      <c r="I12">
-        <v>-1.1596</v>
-      </c>
-      <c r="J12">
-        <v>1.51</v>
-      </c>
-      <c r="K12">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.46545138888888887</v>
-      </c>
-      <c r="B13">
-        <v>14.19</v>
-      </c>
-      <c r="C13">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>2.6042000000000001</v>
-      </c>
-      <c r="E13">
-        <v>1.0487</v>
-      </c>
-      <c r="F13">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="G13">
-        <v>1.5247999999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.1697</v>
-      </c>
-      <c r="I13">
-        <v>-1.1291</v>
-      </c>
-      <c r="J13">
-        <v>1.58</v>
-      </c>
-      <c r="K13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.46556712962962959</v>
-      </c>
-      <c r="B14">
-        <v>16.05</v>
-      </c>
-      <c r="C14">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>2.4127000000000001</v>
-      </c>
-      <c r="E14">
-        <v>1.4320999999999999</v>
-      </c>
-      <c r="F14">
-        <v>1.0402</v>
-      </c>
-      <c r="G14">
-        <v>1.7411000000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.1673</v>
-      </c>
-      <c r="I14">
-        <v>-1.2728999999999999</v>
-      </c>
-      <c r="J14">
-        <v>1.49</v>
-      </c>
-      <c r="K14">
         <v>0.62</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.46627314814814813</v>
-      </c>
-      <c r="B15">
-        <v>0.03</v>
-      </c>
-      <c r="C15">
-        <v>0.04</v>
-      </c>
-      <c r="D15">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.77790000000000004</v>
-      </c>
-      <c r="F15">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="G15">
-        <v>0.5575</v>
-      </c>
-      <c r="H15">
-        <v>-2.7099999999999999E-2</v>
-      </c>
-      <c r="I15">
-        <v>-0.54090000000000005</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0.6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.46709490740740739</v>
-      </c>
-      <c r="B16">
-        <v>0.03</v>
-      </c>
-      <c r="C16">
-        <v>0.04</v>
-      </c>
-      <c r="D16">
-        <v>-3.27E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.15640000000000001</v>
-      </c>
-      <c r="F16">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="G16">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="H16">
-        <v>-2.3099999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <v>-0.1216</v>
-      </c>
-      <c r="J16">
-        <v>-0.04</v>
-      </c>
-      <c r="K16">
-        <v>0.59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3041,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8BC3C2-C123-497E-92FF-4614BADBE88A}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,124 +2520,114 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.47924768518518518</v>
+        <v>0.48084490740740743</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-2.16</v>
       </c>
       <c r="C2">
         <v>0.03</v>
       </c>
       <c r="D2">
-        <v>-8.5000000000000006E-3</v>
+        <v>1.2263999999999999</v>
       </c>
       <c r="E2">
-        <v>0.1229</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="F2">
-        <v>1.1999999999999999E-3</v>
+        <v>0.20880000000000001</v>
       </c>
       <c r="G2">
-        <v>3.8199999999999998E-2</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="H2">
-        <v>-1.3599999999999999E-2</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="I2">
-        <v>-8.3599999999999994E-2</v>
+        <v>-0.96779999999999999</v>
       </c>
       <c r="J2">
-        <v>0.05</v>
+        <v>1.4</v>
       </c>
       <c r="K2">
-        <v>0.63</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.48026620370370371</v>
+        <v>0.48099537037037038</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="C3">
         <v>0.04</v>
       </c>
       <c r="D3">
-        <v>3.27E-2</v>
+        <v>1.4296</v>
       </c>
       <c r="E3">
-        <v>0.78300000000000003</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="F3">
-        <v>1.4E-3</v>
+        <v>0.23830000000000001</v>
       </c>
       <c r="G3">
-        <v>0.51049999999999995</v>
+        <v>0.87090000000000001</v>
       </c>
       <c r="H3">
-        <v>-1.1299999999999999E-2</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="I3">
-        <v>-0.49909999999999999</v>
+        <v>-0.67479999999999996</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="K3">
-        <v>0.61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.48069444444444448</v>
+        <v>0.4811111111111111</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>1.98</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>1.4744999999999999</v>
+        <v>1.6706000000000001</v>
       </c>
       <c r="E4">
-        <v>0.8972</v>
+        <v>1.2199</v>
       </c>
       <c r="F4">
-        <v>0.24229999999999999</v>
+        <v>0.28589999999999999</v>
       </c>
       <c r="G4">
-        <v>0.99390000000000001</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="H4">
-        <v>0.49330000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="I4">
-        <v>-1.0269999999999999</v>
+        <v>-0.59699999999999998</v>
       </c>
       <c r="J4">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="K4">
         <v>0.61</v>
@@ -3208,434 +2635,252 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.48084490740740743</v>
+        <v>0.48123842592592592</v>
       </c>
       <c r="B5">
-        <v>-2.16</v>
+        <v>4.21</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D5">
-        <v>1.2263999999999999</v>
+        <v>1.8689</v>
       </c>
       <c r="E5">
-        <v>0.98050000000000004</v>
+        <v>0.82789999999999997</v>
       </c>
       <c r="F5">
-        <v>0.20880000000000001</v>
+        <v>0.34470000000000001</v>
       </c>
       <c r="G5">
-        <v>0.90249999999999997</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H5">
-        <v>0.40749999999999997</v>
+        <v>0.7026</v>
       </c>
       <c r="I5">
-        <v>-0.96779999999999999</v>
+        <v>-0.70440000000000003</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="K5">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.48099537037037038</v>
+        <v>0.48137731481481483</v>
       </c>
       <c r="B6">
-        <v>-0.05</v>
+        <v>6.24</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
-        <v>1.4296</v>
+        <v>1.835</v>
       </c>
       <c r="E6">
-        <v>0.72550000000000003</v>
+        <v>1.1409</v>
       </c>
       <c r="F6">
-        <v>0.23830000000000001</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="G6">
-        <v>0.87090000000000001</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="H6">
-        <v>0.48380000000000001</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="I6">
-        <v>-0.67479999999999996</v>
+        <v>-0.64359999999999995</v>
       </c>
       <c r="J6">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="K6">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.4811111111111111</v>
+        <v>0.4814930555555556</v>
       </c>
       <c r="B7">
-        <v>1.98</v>
+        <v>7.97</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>1.6706000000000001</v>
+        <v>2.4060999999999999</v>
       </c>
       <c r="E7">
-        <v>1.2199</v>
+        <v>1.0148999999999999</v>
       </c>
       <c r="F7">
-        <v>0.28589999999999999</v>
+        <v>0.57930000000000004</v>
       </c>
       <c r="G7">
-        <v>0.88439999999999996</v>
+        <v>1.2058</v>
       </c>
       <c r="H7">
-        <v>0.60699999999999998</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="I7">
-        <v>-0.59699999999999998</v>
+        <v>-0.80110000000000003</v>
       </c>
       <c r="J7">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="K7">
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.48123842592592592</v>
+        <v>0.48162037037037037</v>
       </c>
       <c r="B8">
-        <v>4.21</v>
+        <v>10.16</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>1.8689</v>
+        <v>2.4276</v>
       </c>
       <c r="E8">
-        <v>0.82789999999999997</v>
+        <v>1.0961000000000001</v>
       </c>
       <c r="F8">
-        <v>0.34470000000000001</v>
+        <v>0.72119999999999995</v>
       </c>
       <c r="G8">
-        <v>0.98809999999999998</v>
+        <v>1.6169</v>
       </c>
       <c r="H8">
-        <v>0.7026</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="I8">
-        <v>-0.70440000000000003</v>
+        <v>-1.1209</v>
       </c>
       <c r="J8">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="K8">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.48137731481481483</v>
+        <v>0.4817939814814815</v>
       </c>
       <c r="B9">
-        <v>6.24</v>
+        <v>12.18</v>
       </c>
       <c r="C9">
         <v>0.04</v>
       </c>
       <c r="D9">
-        <v>1.835</v>
+        <v>2.3382000000000001</v>
       </c>
       <c r="E9">
-        <v>1.1409</v>
+        <v>1.1059000000000001</v>
       </c>
       <c r="F9">
-        <v>0.39350000000000002</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="G9">
-        <v>0.95520000000000005</v>
+        <v>1.6707000000000001</v>
       </c>
       <c r="H9">
-        <v>0.72109999999999996</v>
+        <v>1.0694999999999999</v>
       </c>
       <c r="I9">
-        <v>-0.64359999999999995</v>
+        <v>-1.1938</v>
       </c>
       <c r="J9">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="K9">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.4814930555555556</v>
+        <v>0.48197916666666668</v>
       </c>
       <c r="B10">
-        <v>7.97</v>
+        <v>14.17</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>2.4060999999999999</v>
+        <v>2.6415000000000002</v>
       </c>
       <c r="E10">
-        <v>1.0148999999999999</v>
+        <v>1.0244</v>
       </c>
       <c r="F10">
-        <v>0.57930000000000004</v>
+        <v>1.0188999999999999</v>
       </c>
       <c r="G10">
-        <v>1.2058</v>
+        <v>1.6802999999999999</v>
       </c>
       <c r="H10">
-        <v>0.97309999999999997</v>
+        <v>1.2258</v>
       </c>
       <c r="I10">
-        <v>-0.80110000000000003</v>
+        <v>-1.2515000000000001</v>
       </c>
       <c r="J10">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="K10">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.48162037037037037</v>
+        <v>0.48221064814814812</v>
       </c>
       <c r="B11">
-        <v>10.16</v>
+        <v>16.2</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>2.4276</v>
+        <v>2.4613</v>
       </c>
       <c r="E11">
-        <v>1.0961000000000001</v>
+        <v>0.89529999999999998</v>
       </c>
       <c r="F11">
-        <v>0.72119999999999995</v>
+        <v>1.0513999999999999</v>
       </c>
       <c r="G11">
-        <v>1.6169</v>
+        <v>1.2991999999999999</v>
       </c>
       <c r="H11">
-        <v>1.0529999999999999</v>
+        <v>1.1731</v>
       </c>
       <c r="I11">
-        <v>-1.1209</v>
+        <v>-0.97870000000000001</v>
       </c>
       <c r="J11">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="K11">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.4817939814814815</v>
-      </c>
-      <c r="B12">
-        <v>12.18</v>
-      </c>
-      <c r="C12">
-        <v>0.04</v>
-      </c>
-      <c r="D12">
-        <v>2.3382000000000001</v>
-      </c>
-      <c r="E12">
-        <v>1.1059000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.81340000000000001</v>
-      </c>
-      <c r="G12">
-        <v>1.6707000000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.0694999999999999</v>
-      </c>
-      <c r="I12">
-        <v>-1.1938</v>
-      </c>
-      <c r="J12">
-        <v>1.51</v>
-      </c>
-      <c r="K12">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.48197916666666668</v>
-      </c>
-      <c r="B13">
-        <v>14.17</v>
-      </c>
-      <c r="C13">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>2.6415000000000002</v>
-      </c>
-      <c r="E13">
-        <v>1.0244</v>
-      </c>
-      <c r="F13">
-        <v>1.0188999999999999</v>
-      </c>
-      <c r="G13">
-        <v>1.6802999999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.2258</v>
-      </c>
-      <c r="I13">
-        <v>-1.2515000000000001</v>
-      </c>
-      <c r="J13">
-        <v>1.71</v>
-      </c>
-      <c r="K13">
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.48221064814814812</v>
-      </c>
-      <c r="B14">
-        <v>16.2</v>
-      </c>
-      <c r="C14">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>2.4613</v>
-      </c>
-      <c r="E14">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="F14">
-        <v>1.0513999999999999</v>
-      </c>
-      <c r="G14">
-        <v>1.2991999999999999</v>
-      </c>
-      <c r="H14">
-        <v>1.1731</v>
-      </c>
-      <c r="I14">
-        <v>-0.97870000000000001</v>
-      </c>
-      <c r="J14">
-        <v>1.51</v>
-      </c>
-      <c r="K14">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.48292824074074076</v>
-      </c>
-      <c r="B15">
-        <v>-0.08</v>
-      </c>
-      <c r="C15">
-        <v>0.04</v>
-      </c>
-      <c r="D15">
-        <v>-2.18E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.73319999999999996</v>
-      </c>
-      <c r="F15">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="G15">
-        <v>0.5373</v>
-      </c>
-      <c r="H15">
-        <v>-2.1299999999999999E-2</v>
-      </c>
-      <c r="I15">
-        <v>-0.54549999999999998</v>
-      </c>
-      <c r="J15">
-        <v>0.04</v>
-      </c>
-      <c r="K15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.48371527777777779</v>
-      </c>
-      <c r="B16">
-        <v>-0.09</v>
-      </c>
-      <c r="C16">
-        <v>0.04</v>
-      </c>
-      <c r="D16">
-        <v>-5.8900000000000001E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.1527</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H16">
-        <v>-5.4000000000000003E-3</v>
-      </c>
-      <c r="I16">
-        <v>-0.1118</v>
-      </c>
-      <c r="J16">
-        <v>0.09</v>
-      </c>
-      <c r="K16">
-        <v>0.61</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3724,26 +2969,26 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4231,26 +3476,26 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4913,26 +4158,26 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -5002,26 +4247,26 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -5264,26 +4509,26 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -5876,26 +5121,26 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -6489,44 +5734,24 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="L61:P61"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="L80:P80"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="L11:P11"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="L27:P27"/>
     <mergeCell ref="A48:K48"/>
     <mergeCell ref="L48:P48"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="L61:P61"/>
-    <mergeCell ref="A80:K80"/>
-    <mergeCell ref="L80:P80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd971c82-c883-42a6-92f5-1d4861fe5903" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57869209-b857-4f3e-90b9-cd935e1ee9ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006188D98EBDF22F46BD7279CABA5B208E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea613a1018e0a88476702c4d9b1c9c6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57869209-b857-4f3e-90b9-cd935e1ee9ff" xmlns:ns3="cd971c82-c883-42a6-92f5-1d4861fe5903" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35ac97ededd1402b3482b8e94af9340c" ns2:_="" ns3:_="">
     <xsd:import namespace="57869209-b857-4f3e-90b9-cd935e1ee9ff"/>
@@ -6721,26 +5946,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8AA442-91F7-45C5-83E9-2C21ECCF1CBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd971c82-c883-42a6-92f5-1d4861fe5903"/>
-    <ds:schemaRef ds:uri="57869209-b857-4f3e-90b9-cd935e1ee9ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A3EDC3-767F-4FFE-835F-92BDFAEBF332}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cd971c82-c883-42a6-92f5-1d4861fe5903" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57869209-b857-4f3e-90b9-cd935e1ee9ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B238C2-9EE9-4295-B7E9-6A601D2529D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6757,4 +5983,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A3EDC3-767F-4FFE-835F-92BDFAEBF332}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8AA442-91F7-45C5-83E9-2C21ECCF1CBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd971c82-c883-42a6-92f5-1d4861fe5903"/>
+    <ds:schemaRef ds:uri="57869209-b857-4f3e-90b9-cd935e1ee9ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thegs\OneDrive\Documents\GitHub\ExperimentalMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D500B8A5-3C69-49D7-9BC0-CEAAA4D55CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1D1DF5-4460-4D9A-A95C-F6CDAD82F7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1770" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1770" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="47">
   <si>
     <t>Lift</t>
   </si>
@@ -132,6 +132,12 @@
     <t>WOZ (volts) - (RUN) - 09:40:17</t>
   </si>
   <si>
+    <t>Motor off Windoff</t>
+  </si>
+  <si>
+    <t>Motor on Wind off</t>
+  </si>
+  <si>
     <t>Motor off wind off</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
   </si>
   <si>
     <t>WOZ (volts) - (RUN) - 11:05:05</t>
+  </si>
+  <si>
+    <t>motor off wind off</t>
+  </si>
+  <si>
+    <t>motor on wind off</t>
   </si>
   <si>
     <t>5.625 in</t>
@@ -615,7 +627,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -690,7 +702,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -760,7 +772,7 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -858,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,37 +922,37 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.39974537037037039</v>
+        <v>0.39952546296296299</v>
       </c>
       <c r="B2">
-        <v>-2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0.04</v>
       </c>
       <c r="D2">
-        <v>-4.1799999999999997E-2</v>
+        <v>-2.4199999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.14030000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F2">
-        <v>2.8999999999999998E-3</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="G2">
-        <v>4.9500000000000002E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="H2">
-        <v>-1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I2">
-        <v>-0.10630000000000001</v>
+        <v>-0.1021</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="K2">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -950,37 +962,37 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.40013888888888888</v>
+        <v>0.39974537037037039</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="C3">
         <v>0.04</v>
       </c>
       <c r="D3">
-        <v>-5.9499999999999997E-2</v>
+        <v>-4.1799999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>0.14829999999999999</v>
+        <v>0.14030000000000001</v>
       </c>
       <c r="F3">
-        <v>-3.3999999999999998E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="G3">
-        <v>4.7300000000000002E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>-2.7000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="I3">
-        <v>-0.1012</v>
+        <v>-0.10630000000000001</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -990,37 +1002,37 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.40033564814814815</v>
+        <v>0.40013888888888888</v>
       </c>
       <c r="B4">
-        <v>2.11</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D4">
-        <v>-7.3800000000000004E-2</v>
+        <v>-5.9499999999999997E-2</v>
       </c>
       <c r="E4">
-        <v>0.14169999999999999</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="F4">
-        <v>-2E-3</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="G4">
-        <v>5.0599999999999999E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>-4.7999999999999996E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="I4">
-        <v>-0.1075</v>
+        <v>-0.1012</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1030,37 +1042,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.40053240740740742</v>
+        <v>0.40033564814814815</v>
       </c>
       <c r="B5">
-        <v>3.93</v>
+        <v>2.11</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>-9.0300000000000005E-2</v>
+        <v>-7.3800000000000004E-2</v>
       </c>
       <c r="E5">
-        <v>0.13250000000000001</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
       <c r="G5">
-        <v>4.7800000000000002E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="H5">
-        <v>-1.1900000000000001E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="I5">
-        <v>-0.1079</v>
+        <v>-0.1075</v>
       </c>
       <c r="J5">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K5">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1070,37 +1082,37 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.40069444444444446</v>
+        <v>0.40053240740740742</v>
       </c>
       <c r="B6">
-        <v>5.91</v>
+        <v>3.93</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
-        <v>-0.1062</v>
+        <v>-9.0300000000000005E-2</v>
       </c>
       <c r="E6">
-        <v>0.15040000000000001</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="F6">
-        <v>-2.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5.04E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="H6">
-        <v>-1.04E-2</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>-0.10639999999999999</v>
+        <v>-0.1079</v>
       </c>
       <c r="J6">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="K6">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1110,37 +1122,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.40086805555555555</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="B7">
-        <v>8.17</v>
+        <v>5.91</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>-0.11360000000000001</v>
+        <v>-0.1062</v>
       </c>
       <c r="E7">
-        <v>0.14560000000000001</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="F7">
-        <v>-6.8999999999999999E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="G7">
-        <v>4.7300000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="H7">
-        <v>-4.7000000000000002E-3</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="I7">
-        <v>-9.7500000000000003E-2</v>
+        <v>-0.10639999999999999</v>
       </c>
       <c r="J7">
         <v>0.02</v>
       </c>
       <c r="K7">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1150,37 +1162,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.40100694444444446</v>
+        <v>0.40086805555555555</v>
       </c>
       <c r="B8">
-        <v>10.039999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>-0.12</v>
+        <v>-0.11360000000000001</v>
       </c>
       <c r="E8">
-        <v>0.1394</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="F8">
-        <v>-1E-3</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="G8">
-        <v>5.04E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="H8">
-        <v>-2.3E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="I8">
-        <v>-0.10580000000000001</v>
+        <v>-9.7500000000000003E-2</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="K8">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1190,37 +1202,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.40115740740740741</v>
+        <v>0.40100694444444446</v>
       </c>
       <c r="B9">
-        <v>12.05</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C9">
         <v>0.04</v>
       </c>
       <c r="D9">
-        <v>-0.13469999999999999</v>
+        <v>-0.12</v>
       </c>
       <c r="E9">
-        <v>0.14990000000000001</v>
+        <v>0.1394</v>
       </c>
       <c r="F9">
-        <v>-5.4000000000000003E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="G9">
-        <v>5.1900000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="H9">
-        <v>-7.6E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="I9">
-        <v>-0.1118</v>
+        <v>-0.10580000000000001</v>
       </c>
       <c r="J9">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K9">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1230,37 +1242,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.40130787037037036</v>
+        <v>0.40115740740740741</v>
       </c>
       <c r="B10">
-        <v>14.15</v>
+        <v>12.05</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>-0.13819999999999999</v>
+        <v>-0.13469999999999999</v>
       </c>
       <c r="E10">
-        <v>0.15</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="F10">
-        <v>-4.0000000000000001E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="G10">
-        <v>4.8300000000000003E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="H10">
-        <v>-1.0500000000000001E-2</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="I10">
-        <v>-0.10580000000000001</v>
+        <v>-0.1118</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="K10">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1270,37 +1282,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.40144675925925927</v>
+        <v>0.40130787037037036</v>
       </c>
       <c r="B11">
-        <v>16.010000000000002</v>
+        <v>14.15</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>-0.14410000000000001</v>
+        <v>-0.13819999999999999</v>
       </c>
       <c r="E11">
-        <v>0.1414</v>
+        <v>0.15</v>
       </c>
       <c r="F11">
-        <v>-3.8E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G11">
-        <v>4.7300000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="H11">
-        <v>-1.43E-2</v>
+        <v>-1.0500000000000001E-2</v>
       </c>
       <c r="I11">
-        <v>-0.1011</v>
+        <v>-0.10580000000000001</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K11">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1308,19 +1320,101 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.40144675925925927</v>
+      </c>
+      <c r="B12">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>-0.14410000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.1414</v>
+      </c>
+      <c r="F12">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="G12">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="H12">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="I12">
+        <v>-0.1011</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.54</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.40201388888888889</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>-0.18870000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.1542</v>
+      </c>
+      <c r="F13">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G13">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="H13">
+        <v>-8.3999999999999995E-3</v>
+      </c>
+      <c r="I13">
+        <v>-0.10589999999999999</v>
+      </c>
+      <c r="J13">
+        <v>-0.04</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L10:P10"/>
     <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L13:P13"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1328,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C9959A-4D4F-4F00-AF41-473D031A3A38}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,39 +1474,41 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.40548611111111116</v>
+        <v>0.40313657407407405</v>
       </c>
       <c r="B2">
-        <v>-1.92</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0.04</v>
       </c>
       <c r="D2">
-        <v>1.2605999999999999</v>
+        <v>-7.7000000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>0.94</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F2">
-        <v>0.24660000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
-        <v>0.63260000000000005</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="H2">
-        <v>0.5504</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="I2">
-        <v>-0.51719999999999999</v>
+        <v>-9.9299999999999999E-2</v>
       </c>
       <c r="J2">
-        <v>1.68</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
-        <v>0.72</v>
-      </c>
-      <c r="L2" s="3"/>
+        <v>0.62</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1420,39 +1516,41 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.40561342592592592</v>
+        <v>0.40418981481481481</v>
       </c>
       <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>-9.69E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.8569</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="H3">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>-0.3679</v>
+      </c>
+      <c r="J3">
         <v>-0.03</v>
       </c>
-      <c r="C3">
-        <v>0.04</v>
-      </c>
-      <c r="D3">
-        <v>1.5596000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="F3">
-        <v>0.27029999999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="H3">
-        <v>0.61680000000000001</v>
-      </c>
-      <c r="I3">
-        <v>-0.52029999999999998</v>
-      </c>
-      <c r="J3">
-        <v>1.65</v>
-      </c>
       <c r="K3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1460,37 +1558,37 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.4057291666666667</v>
+        <v>0.40490740740740744</v>
       </c>
       <c r="B4">
-        <v>2.2999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>1.8902000000000001</v>
+        <v>1.1187</v>
       </c>
       <c r="E4">
-        <v>0.89910000000000001</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="F4">
-        <v>0.33950000000000002</v>
+        <v>0.218</v>
       </c>
       <c r="G4">
-        <v>0.94089999999999996</v>
+        <v>0.75590000000000002</v>
       </c>
       <c r="H4">
-        <v>0.74490000000000001</v>
+        <v>0.49509999999999998</v>
       </c>
       <c r="I4">
-        <v>-0.65949999999999998</v>
+        <v>-0.498</v>
       </c>
       <c r="J4">
-        <v>1.75</v>
+        <v>1.21</v>
       </c>
       <c r="K4">
-        <v>0.56999999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1500,37 +1598,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.40584490740740736</v>
+        <v>0.4050347222222222</v>
       </c>
       <c r="B5">
-        <v>4.01</v>
+        <v>0.39</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D5">
-        <v>1.8072999999999999</v>
+        <v>1.6591</v>
       </c>
       <c r="E5">
-        <v>0.91749999999999998</v>
+        <v>0.95430000000000004</v>
       </c>
       <c r="F5">
-        <v>0.36780000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G5">
-        <v>0.95040000000000002</v>
+        <v>0.80479999999999996</v>
       </c>
       <c r="H5">
-        <v>0.78049999999999997</v>
+        <v>0.66069999999999995</v>
       </c>
       <c r="I5">
-        <v>-0.68340000000000001</v>
+        <v>-0.54139999999999999</v>
       </c>
       <c r="J5">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="K5">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1540,37 +1638,37 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.40596064814814814</v>
+        <v>0.40548611111111116</v>
       </c>
       <c r="B6">
-        <v>6.11</v>
+        <v>-1.92</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
-        <v>2.1421000000000001</v>
+        <v>1.2605999999999999</v>
       </c>
       <c r="E6">
-        <v>1.0951</v>
+        <v>0.94</v>
       </c>
       <c r="F6">
-        <v>0.48609999999999998</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="G6">
-        <v>1.0133000000000001</v>
+        <v>0.63260000000000005</v>
       </c>
       <c r="H6">
-        <v>0.91830000000000001</v>
+        <v>0.5504</v>
       </c>
       <c r="I6">
-        <v>-0.70079999999999998</v>
+        <v>-0.51719999999999999</v>
       </c>
       <c r="J6">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="K6">
-        <v>0.56999999999999995</v>
+        <v>0.72</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1580,37 +1678,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.40615740740740741</v>
+        <v>0.40561342592592592</v>
       </c>
       <c r="B7">
-        <v>8.14</v>
+        <v>-0.03</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>2.3853</v>
+        <v>1.5596000000000001</v>
       </c>
       <c r="E7">
-        <v>1.105</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="F7">
-        <v>0.622</v>
+        <v>0.27029999999999998</v>
       </c>
       <c r="G7">
-        <v>1.2038</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="H7">
-        <v>1.0734999999999999</v>
+        <v>0.61680000000000001</v>
       </c>
       <c r="I7">
-        <v>-0.87050000000000005</v>
+        <v>-0.52029999999999998</v>
       </c>
       <c r="J7">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="K7">
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1620,37 +1718,37 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.40629629629629632</v>
+        <v>0.4057291666666667</v>
       </c>
       <c r="B8">
-        <v>10.09</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>2.3746</v>
+        <v>1.8902000000000001</v>
       </c>
       <c r="E8">
-        <v>1.0621</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="F8">
-        <v>0.75309999999999999</v>
+        <v>0.33950000000000002</v>
       </c>
       <c r="G8">
-        <v>1.2089000000000001</v>
+        <v>0.94089999999999996</v>
       </c>
       <c r="H8">
-        <v>1.1291</v>
+        <v>0.74490000000000001</v>
       </c>
       <c r="I8">
-        <v>-0.8871</v>
+        <v>-0.65949999999999998</v>
       </c>
       <c r="J8">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K8">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1660,37 +1758,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.40643518518518523</v>
+        <v>0.40584490740740736</v>
       </c>
       <c r="B9">
-        <v>11.96</v>
+        <v>4.01</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D9">
-        <v>2.3654000000000002</v>
+        <v>1.8072999999999999</v>
       </c>
       <c r="E9">
-        <v>0.95860000000000001</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="F9">
-        <v>0.85950000000000004</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="G9">
-        <v>1.4865999999999999</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="H9">
-        <v>1.1616</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="I9">
-        <v>-1.1066</v>
+        <v>-0.68340000000000001</v>
       </c>
       <c r="J9">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K9">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1700,37 +1798,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.40658564814814818</v>
+        <v>0.40596064814814814</v>
       </c>
       <c r="B10">
-        <v>13.95</v>
+        <v>6.11</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>2.4043000000000001</v>
+        <v>2.1421000000000001</v>
       </c>
       <c r="E10">
-        <v>0.95520000000000005</v>
+        <v>1.0951</v>
       </c>
       <c r="F10">
-        <v>0.9647</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="G10">
-        <v>1.3305</v>
+        <v>1.0133000000000001</v>
       </c>
       <c r="H10">
-        <v>1.1936</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="I10">
-        <v>-1.0255000000000001</v>
+        <v>-0.70079999999999998</v>
       </c>
       <c r="J10">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="K10">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1740,37 +1838,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.40672453703703698</v>
+        <v>0.40615740740740741</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>8.14</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>2.4561000000000002</v>
+        <v>2.3853</v>
       </c>
       <c r="E11">
-        <v>1.0172000000000001</v>
+        <v>1.105</v>
       </c>
       <c r="F11">
-        <v>1.1036999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="G11">
-        <v>1.417</v>
+        <v>1.2038</v>
       </c>
       <c r="H11">
-        <v>1.2416</v>
+        <v>1.0734999999999999</v>
       </c>
       <c r="I11">
-        <v>-1.1032</v>
+        <v>-0.87050000000000005</v>
       </c>
       <c r="J11">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="K11">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1778,8 +1876,80 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.40629629629629632</v>
+      </c>
+      <c r="B12">
+        <v>10.09</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>2.3746</v>
+      </c>
+      <c r="E12">
+        <v>1.0621</v>
+      </c>
+      <c r="F12">
+        <v>0.75309999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.2089000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.1291</v>
+      </c>
+      <c r="I12">
+        <v>-0.8871</v>
+      </c>
+      <c r="J12">
+        <v>1.65</v>
+      </c>
+      <c r="K12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>0.40643518518518523</v>
+      </c>
+      <c r="B13">
+        <v>11.96</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>2.3654000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="G13">
+        <v>1.4865999999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.1616</v>
+      </c>
+      <c r="I13">
+        <v>-1.1066</v>
+      </c>
+      <c r="J13">
+        <v>1.66</v>
+      </c>
+      <c r="K13">
+        <v>0.67</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1787,16 +1957,212 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.40658564814814818</v>
+      </c>
+      <c r="B14">
+        <v>13.95</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>2.4043000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.9647</v>
+      </c>
+      <c r="G14">
+        <v>1.3305</v>
+      </c>
+      <c r="H14">
+        <v>1.1936</v>
+      </c>
+      <c r="I14">
+        <v>-1.0255000000000001</v>
+      </c>
+      <c r="J14">
+        <v>1.61</v>
+      </c>
+      <c r="K14">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.40672453703703698</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>2.4561000000000002</v>
+      </c>
+      <c r="E15">
+        <v>1.0172000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.1036999999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.417</v>
+      </c>
+      <c r="H15">
+        <v>1.2416</v>
+      </c>
+      <c r="I15">
+        <v>-1.1032</v>
+      </c>
+      <c r="J15">
+        <v>1.59</v>
+      </c>
+      <c r="K15">
+        <v>0.53</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.40728009259259257</v>
+      </c>
+      <c r="B16">
+        <v>-0.02</v>
+      </c>
+      <c r="C16">
+        <v>0.04</v>
+      </c>
+      <c r="D16">
+        <v>1.6133</v>
+      </c>
+      <c r="E16">
+        <v>1.0523</v>
+      </c>
+      <c r="F16">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="I16">
+        <v>-0.46910000000000002</v>
+      </c>
+      <c r="J16">
+        <v>1.79</v>
+      </c>
+      <c r="K16">
+        <v>0.62</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.40765046296296298</v>
+      </c>
+      <c r="B17">
+        <v>-0.12</v>
+      </c>
+      <c r="C17">
+        <v>0.03</v>
+      </c>
+      <c r="D17">
+        <v>-0.2959</v>
+      </c>
+      <c r="E17">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="F17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G17">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="H17">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="I17">
+        <v>-0.37530000000000002</v>
+      </c>
+      <c r="J17">
+        <v>-0.01</v>
+      </c>
+      <c r="K17">
+        <v>0.73</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.40876157407407404</v>
+      </c>
+      <c r="B18">
+        <v>-0.12</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>-0.36320000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="F18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>-8.6699999999999999E-2</v>
+      </c>
+      <c r="J18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.69</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="L14:P14"/>
+  <mergeCells count="18">
+    <mergeCell ref="L18:P18"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L3:P3"/>
@@ -1808,7 +2174,12 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
     <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1901,7 +2272,7 @@
         <v>0.68</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1943,7 +2314,7 @@
         <v>0.66</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2016,7 +2387,7 @@
         <v>0.7</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2054,7 +2425,7 @@
         <v>0.78</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2068,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A76F1-FE5C-4608-A78A-47E2470D8953}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,279 +2491,289 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.46438657407407408</v>
+        <v>0.46214120370370365</v>
       </c>
       <c r="B2">
-        <v>-2.08</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D2">
-        <v>1.1763999999999999</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>0.90949999999999998</v>
+        <v>0.1082</v>
       </c>
       <c r="F2">
-        <v>0.21579999999999999</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G2">
-        <v>1.1012</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="H2">
-        <v>0.4365</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="I2">
-        <v>-1.1565000000000001</v>
+        <v>-7.1099999999999997E-2</v>
       </c>
       <c r="J2">
-        <v>1.41</v>
+        <v>-0.01</v>
       </c>
       <c r="K2">
-        <v>0.71</v>
-      </c>
+        <v>0.66</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.46452546296296293</v>
+        <v>0.46322916666666664</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
-        <v>1.4739</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>0.9022</v>
+        <v>0.7591</v>
       </c>
       <c r="F3">
-        <v>0.25600000000000001</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="G3">
-        <v>0.87880000000000003</v>
+        <v>0.43940000000000001</v>
       </c>
       <c r="H3">
-        <v>0.55630000000000002</v>
+        <v>-1.01E-2</v>
       </c>
       <c r="I3">
-        <v>-0.66100000000000003</v>
+        <v>-0.44979999999999998</v>
       </c>
       <c r="J3">
-        <v>1.44</v>
+        <v>-0.05</v>
       </c>
       <c r="K3">
-        <v>0.73</v>
+        <v>0.7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.46462962962962967</v>
+        <v>0.4642013888888889</v>
       </c>
       <c r="B4">
-        <v>1.93</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>1.6729000000000001</v>
+        <v>1.3168</v>
       </c>
       <c r="E4">
-        <v>0.76380000000000003</v>
+        <v>1.0052000000000001</v>
       </c>
       <c r="F4">
-        <v>0.28310000000000002</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="G4">
-        <v>1.08</v>
+        <v>0.61380000000000001</v>
       </c>
       <c r="H4">
-        <v>0.60719999999999996</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="I4">
-        <v>-0.79159999999999997</v>
+        <v>-0.59460000000000002</v>
       </c>
       <c r="J4">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="K4">
-        <v>0.56000000000000005</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.46476851851851847</v>
+        <v>0.46438657407407408</v>
       </c>
       <c r="B5">
-        <v>4.12</v>
+        <v>-2.08</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
-        <v>1.7644</v>
+        <v>1.1763999999999999</v>
       </c>
       <c r="E5">
-        <v>0.91469999999999996</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="F5">
-        <v>0.32</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="G5">
-        <v>0.94669999999999999</v>
+        <v>1.1012</v>
       </c>
       <c r="H5">
-        <v>0.67030000000000001</v>
+        <v>0.4365</v>
       </c>
       <c r="I5">
-        <v>-0.65439999999999998</v>
+        <v>-1.1565000000000001</v>
       </c>
       <c r="J5">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="K5">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.46488425925925925</v>
+        <v>0.46452546296296293</v>
       </c>
       <c r="B6">
-        <v>6.16</v>
+        <v>0.01</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D6">
-        <v>2.0771999999999999</v>
+        <v>1.4739</v>
       </c>
       <c r="E6">
-        <v>0.98670000000000002</v>
+        <v>0.9022</v>
       </c>
       <c r="F6">
-        <v>0.45140000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="G6">
-        <v>1.0386</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="H6">
-        <v>0.84909999999999997</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="I6">
-        <v>-0.76</v>
+        <v>-0.66100000000000003</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K6">
-        <v>0.57999999999999996</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.46502314814814816</v>
+        <v>0.46462962962962967</v>
       </c>
       <c r="B7">
-        <v>7.96</v>
+        <v>1.93</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>2.3643999999999998</v>
+        <v>1.6729000000000001</v>
       </c>
       <c r="E7">
-        <v>0.94940000000000002</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="F7">
-        <v>0.56679999999999997</v>
+        <v>0.28310000000000002</v>
       </c>
       <c r="G7">
-        <v>1.1760999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="H7">
-        <v>0.96319999999999995</v>
+        <v>0.60719999999999996</v>
       </c>
       <c r="I7">
-        <v>-0.80969999999999998</v>
+        <v>-0.79159999999999997</v>
       </c>
       <c r="J7">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.4651851851851852</v>
+        <v>0.46476851851851847</v>
       </c>
       <c r="B8">
-        <v>9.91</v>
+        <v>4.12</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>2.0316000000000001</v>
+        <v>1.7644</v>
       </c>
       <c r="E8">
-        <v>1.2194</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="F8">
-        <v>0.57489999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="G8">
-        <v>1.224</v>
+        <v>0.94669999999999999</v>
       </c>
       <c r="H8">
-        <v>0.874</v>
+        <v>0.67030000000000001</v>
       </c>
       <c r="I8">
-        <v>-0.82499999999999996</v>
+        <v>-0.65439999999999998</v>
       </c>
       <c r="J8">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="K8">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.46530092592592592</v>
+        <v>0.46488425925925925</v>
       </c>
       <c r="B9">
-        <v>11.95</v>
+        <v>6.16</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D9">
-        <v>2.3361999999999998</v>
+        <v>2.0771999999999999</v>
       </c>
       <c r="E9">
-        <v>0.86380000000000001</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="F9">
-        <v>0.78969999999999996</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="G9">
-        <v>1.6644000000000001</v>
+        <v>1.0386</v>
       </c>
       <c r="H9">
-        <v>1.0248999999999999</v>
+        <v>0.84909999999999997</v>
       </c>
       <c r="I9">
-        <v>-1.1596</v>
+        <v>-0.76</v>
       </c>
       <c r="J9">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
         <v>0.57999999999999996</v>
@@ -2400,34 +2781,34 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.46545138888888887</v>
+        <v>0.46502314814814816</v>
       </c>
       <c r="B10">
-        <v>14.19</v>
+        <v>7.96</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>2.6042000000000001</v>
+        <v>2.3643999999999998</v>
       </c>
       <c r="E10">
-        <v>1.0487</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="F10">
-        <v>0.99619999999999997</v>
+        <v>0.56679999999999997</v>
       </c>
       <c r="G10">
-        <v>1.5247999999999999</v>
+        <v>1.1760999999999999</v>
       </c>
       <c r="H10">
-        <v>1.1697</v>
+        <v>0.96319999999999995</v>
       </c>
       <c r="I10">
-        <v>-1.1291</v>
+        <v>-0.80969999999999998</v>
       </c>
       <c r="J10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="K10">
         <v>0.6</v>
@@ -2435,42 +2816,224 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.46556712962962959</v>
+        <v>0.4651851851851852</v>
       </c>
       <c r="B11">
-        <v>16.05</v>
+        <v>9.91</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
+        <v>2.0316000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.2194</v>
+      </c>
+      <c r="F11">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="G11">
+        <v>1.224</v>
+      </c>
+      <c r="H11">
+        <v>0.874</v>
+      </c>
+      <c r="I11">
+        <v>-0.82499999999999996</v>
+      </c>
+      <c r="J11">
+        <v>1.31</v>
+      </c>
+      <c r="K11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.46530092592592592</v>
+      </c>
+      <c r="B12">
+        <v>11.95</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>2.3361999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="G12">
+        <v>1.6644000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.0248999999999999</v>
+      </c>
+      <c r="I12">
+        <v>-1.1596</v>
+      </c>
+      <c r="J12">
+        <v>1.51</v>
+      </c>
+      <c r="K12">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.46545138888888887</v>
+      </c>
+      <c r="B13">
+        <v>14.19</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>2.6042000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.0487</v>
+      </c>
+      <c r="F13">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="G13">
+        <v>1.5247999999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.1697</v>
+      </c>
+      <c r="I13">
+        <v>-1.1291</v>
+      </c>
+      <c r="J13">
+        <v>1.58</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.46556712962962959</v>
+      </c>
+      <c r="B14">
+        <v>16.05</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
         <v>2.4127000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>1.4320999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>1.0402</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>1.7411000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>1.1673</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>-1.2728999999999999</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>1.49</v>
       </c>
-      <c r="K11">
+      <c r="K14">
         <v>0.62</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.46627314814814813</v>
+      </c>
+      <c r="B15">
+        <v>0.03</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="F15">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.5575</v>
+      </c>
+      <c r="H15">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>-0.54090000000000005</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.46709490740740739</v>
+      </c>
+      <c r="B16">
+        <v>0.03</v>
+      </c>
+      <c r="C16">
+        <v>0.04</v>
+      </c>
+      <c r="D16">
+        <v>-3.27E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="F16">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="G16">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="H16">
+        <v>-2.3099999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>-0.1216</v>
+      </c>
+      <c r="J16">
+        <v>-0.04</v>
+      </c>
+      <c r="K16">
+        <v>0.59</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2478,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8BC3C2-C123-497E-92FF-4614BADBE88A}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,104 +3093,114 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.48084490740740743</v>
+        <v>0.47924768518518518</v>
       </c>
       <c r="B2">
-        <v>-2.16</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0.03</v>
       </c>
       <c r="D2">
-        <v>1.2263999999999999</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E2">
-        <v>0.98050000000000004</v>
+        <v>0.1229</v>
       </c>
       <c r="F2">
-        <v>0.20880000000000001</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G2">
-        <v>0.90249999999999997</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="H2">
-        <v>0.40749999999999997</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>-0.96779999999999999</v>
+        <v>-8.3599999999999994E-2</v>
       </c>
       <c r="J2">
-        <v>1.4</v>
+        <v>0.05</v>
       </c>
       <c r="K2">
-        <v>0.56999999999999995</v>
-      </c>
+        <v>0.63</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.48099537037037038</v>
+        <v>0.48026620370370371</v>
       </c>
       <c r="B3">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.04</v>
       </c>
       <c r="D3">
-        <v>1.4296</v>
+        <v>3.27E-2</v>
       </c>
       <c r="E3">
-        <v>0.72550000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F3">
-        <v>0.23830000000000001</v>
+        <v>1.4E-3</v>
       </c>
       <c r="G3">
-        <v>0.87090000000000001</v>
+        <v>0.51049999999999995</v>
       </c>
       <c r="H3">
-        <v>0.48380000000000001</v>
+        <v>-1.1299999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>-0.67479999999999996</v>
+        <v>-0.49909999999999999</v>
       </c>
       <c r="J3">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.54</v>
+        <v>0.61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.4811111111111111</v>
+        <v>0.48069444444444448</v>
       </c>
       <c r="B4">
-        <v>1.98</v>
+        <v>0.02</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>1.6706000000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="E4">
-        <v>1.2199</v>
+        <v>0.8972</v>
       </c>
       <c r="F4">
-        <v>0.28589999999999999</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="G4">
-        <v>0.88439999999999996</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="H4">
-        <v>0.60699999999999998</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="I4">
-        <v>-0.59699999999999998</v>
+        <v>-1.0269999999999999</v>
       </c>
       <c r="J4">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="K4">
         <v>0.61</v>
@@ -2635,252 +3208,434 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.48123842592592592</v>
+        <v>0.48084490740740743</v>
       </c>
       <c r="B5">
-        <v>4.21</v>
+        <v>-2.16</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
-        <v>1.8689</v>
+        <v>1.2263999999999999</v>
       </c>
       <c r="E5">
-        <v>0.82789999999999997</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="F5">
-        <v>0.34470000000000001</v>
+        <v>0.20880000000000001</v>
       </c>
       <c r="G5">
-        <v>0.98809999999999998</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="H5">
-        <v>0.7026</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="I5">
-        <v>-0.70440000000000003</v>
+        <v>-0.96779999999999999</v>
       </c>
       <c r="J5">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.48137731481481483</v>
+        <v>0.48099537037037038</v>
       </c>
       <c r="B6">
-        <v>6.24</v>
+        <v>-0.05</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
-        <v>1.835</v>
+        <v>1.4296</v>
       </c>
       <c r="E6">
-        <v>1.1409</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="F6">
-        <v>0.39350000000000002</v>
+        <v>0.23830000000000001</v>
       </c>
       <c r="G6">
-        <v>0.95520000000000005</v>
+        <v>0.87090000000000001</v>
       </c>
       <c r="H6">
-        <v>0.72109999999999996</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="I6">
-        <v>-0.64359999999999995</v>
+        <v>-0.67479999999999996</v>
       </c>
       <c r="J6">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="K6">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.4814930555555556</v>
+        <v>0.4811111111111111</v>
       </c>
       <c r="B7">
-        <v>7.97</v>
+        <v>1.98</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7">
-        <v>2.4060999999999999</v>
+        <v>1.6706000000000001</v>
       </c>
       <c r="E7">
-        <v>1.0148999999999999</v>
+        <v>1.2199</v>
       </c>
       <c r="F7">
-        <v>0.57930000000000004</v>
+        <v>0.28589999999999999</v>
       </c>
       <c r="G7">
-        <v>1.2058</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="H7">
-        <v>0.97309999999999997</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="I7">
-        <v>-0.80110000000000003</v>
+        <v>-0.59699999999999998</v>
       </c>
       <c r="J7">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="K7">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.48162037037037037</v>
+        <v>0.48123842592592592</v>
       </c>
       <c r="B8">
-        <v>10.16</v>
+        <v>4.21</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>2.4276</v>
+        <v>1.8689</v>
       </c>
       <c r="E8">
-        <v>1.0961000000000001</v>
+        <v>0.82789999999999997</v>
       </c>
       <c r="F8">
-        <v>0.72119999999999995</v>
+        <v>0.34470000000000001</v>
       </c>
       <c r="G8">
-        <v>1.6169</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H8">
-        <v>1.0529999999999999</v>
+        <v>0.7026</v>
       </c>
       <c r="I8">
-        <v>-1.1209</v>
+        <v>-0.70440000000000003</v>
       </c>
       <c r="J8">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="K8">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.4817939814814815</v>
+        <v>0.48137731481481483</v>
       </c>
       <c r="B9">
-        <v>12.18</v>
+        <v>6.24</v>
       </c>
       <c r="C9">
         <v>0.04</v>
       </c>
       <c r="D9">
-        <v>2.3382000000000001</v>
+        <v>1.835</v>
       </c>
       <c r="E9">
-        <v>1.1059000000000001</v>
+        <v>1.1409</v>
       </c>
       <c r="F9">
-        <v>0.81340000000000001</v>
+        <v>0.39350000000000002</v>
       </c>
       <c r="G9">
-        <v>1.6707000000000001</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="H9">
-        <v>1.0694999999999999</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="I9">
-        <v>-1.1938</v>
+        <v>-0.64359999999999995</v>
       </c>
       <c r="J9">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="K9">
-        <v>0.59</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.48197916666666668</v>
+        <v>0.4814930555555556</v>
       </c>
       <c r="B10">
-        <v>14.17</v>
+        <v>7.97</v>
       </c>
       <c r="C10">
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>2.6415000000000002</v>
+        <v>2.4060999999999999</v>
       </c>
       <c r="E10">
-        <v>1.0244</v>
+        <v>1.0148999999999999</v>
       </c>
       <c r="F10">
-        <v>1.0188999999999999</v>
+        <v>0.57930000000000004</v>
       </c>
       <c r="G10">
-        <v>1.6802999999999999</v>
+        <v>1.2058</v>
       </c>
       <c r="H10">
-        <v>1.2258</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="I10">
-        <v>-1.2515000000000001</v>
+        <v>-0.80110000000000003</v>
       </c>
       <c r="J10">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="K10">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.48221064814814812</v>
+        <v>0.48162037037037037</v>
       </c>
       <c r="B11">
-        <v>16.2</v>
+        <v>10.16</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
+        <v>2.4276</v>
+      </c>
+      <c r="E11">
+        <v>1.0961000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.72119999999999995</v>
+      </c>
+      <c r="G11">
+        <v>1.6169</v>
+      </c>
+      <c r="H11">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="I11">
+        <v>-1.1209</v>
+      </c>
+      <c r="J11">
+        <v>1.63</v>
+      </c>
+      <c r="K11">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.4817939814814815</v>
+      </c>
+      <c r="B12">
+        <v>12.18</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>2.3382000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.1059000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="G12">
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.0694999999999999</v>
+      </c>
+      <c r="I12">
+        <v>-1.1938</v>
+      </c>
+      <c r="J12">
+        <v>1.51</v>
+      </c>
+      <c r="K12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.48197916666666668</v>
+      </c>
+      <c r="B13">
+        <v>14.17</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>2.6415000000000002</v>
+      </c>
+      <c r="E13">
+        <v>1.0244</v>
+      </c>
+      <c r="F13">
+        <v>1.0188999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.6802999999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.2258</v>
+      </c>
+      <c r="I13">
+        <v>-1.2515000000000001</v>
+      </c>
+      <c r="J13">
+        <v>1.71</v>
+      </c>
+      <c r="K13">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.48221064814814812</v>
+      </c>
+      <c r="B14">
+        <v>16.2</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
         <v>2.4613</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>0.89529999999999998</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>1.0513999999999999</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>1.2991999999999999</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>1.1731</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>-0.97870000000000001</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>1.51</v>
       </c>
-      <c r="K11">
+      <c r="K14">
         <v>0.51</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.48292824074074076</v>
+      </c>
+      <c r="B15">
+        <v>-0.08</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="F15">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.5373</v>
+      </c>
+      <c r="H15">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>-0.54549999999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+      <c r="K15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.48371527777777779</v>
+      </c>
+      <c r="B16">
+        <v>-0.09</v>
+      </c>
+      <c r="C16">
+        <v>0.04</v>
+      </c>
+      <c r="D16">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.1527</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H16">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="I16">
+        <v>-0.1118</v>
+      </c>
+      <c r="J16">
+        <v>0.09</v>
+      </c>
+      <c r="K16">
+        <v>0.61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4172,7 +4927,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4248,7 +5003,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4261,7 +5016,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4523,7 +5278,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -5135,7 +5890,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -5752,6 +6507,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cd971c82-c883-42a6-92f5-1d4861fe5903" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57869209-b857-4f3e-90b9-cd935e1ee9ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006188D98EBDF22F46BD7279CABA5B208E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea613a1018e0a88476702c4d9b1c9c6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57869209-b857-4f3e-90b9-cd935e1ee9ff" xmlns:ns3="cd971c82-c883-42a6-92f5-1d4861fe5903" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35ac97ededd1402b3482b8e94af9340c" ns2:_="" ns3:_="">
     <xsd:import namespace="57869209-b857-4f3e-90b9-cd935e1ee9ff"/>
@@ -5946,7 +6712,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5955,18 +6721,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd971c82-c883-42a6-92f5-1d4861fe5903" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57869209-b857-4f3e-90b9-cd935e1ee9ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8AA442-91F7-45C5-83E9-2C21ECCF1CBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd971c82-c883-42a6-92f5-1d4861fe5903"/>
+    <ds:schemaRef ds:uri="57869209-b857-4f3e-90b9-cd935e1ee9ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B238C2-9EE9-4295-B7E9-6A601D2529D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5985,21 +6751,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A3EDC3-767F-4FFE-835F-92BDFAEBF332}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8AA442-91F7-45C5-83E9-2C21ECCF1CBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd971c82-c883-42a6-92f5-1d4861fe5903"/>
-    <ds:schemaRef ds:uri="57869209-b857-4f3e-90b9-cd935e1ee9ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>